--- a/data_year/zb/科技/高技术产业基本情况(大中型工业企业口径).xlsx
+++ b/data_year/zb/科技/高技术产业基本情况(大中型工业企业口径).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,683 +493,441 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2245</v>
+        <v>59683</v>
       </c>
       <c r="C2" t="n">
-        <v>1282</v>
+        <v>6011</v>
       </c>
       <c r="D2" t="n">
-        <v>562.9501</v>
+        <v>6944.7</v>
       </c>
       <c r="E2" t="n">
-        <v>117.79403</v>
+        <v>1006.93846</v>
       </c>
       <c r="F2" t="n">
-        <v>421.0174</v>
+        <v>4450.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1640</v>
+        <v>7117</v>
       </c>
       <c r="H2" t="n">
-        <v>2734</v>
+        <v>10723</v>
       </c>
       <c r="I2" t="n">
-        <v>1443</v>
+        <v>50166</v>
       </c>
       <c r="J2" t="n">
-        <v>9.157299999999999</v>
+        <v>39.90749</v>
       </c>
       <c r="K2" t="n">
-        <v>1379</v>
+        <v>3184</v>
       </c>
       <c r="L2" t="n">
-        <v>111.041</v>
+        <v>967.82997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8270</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>77725</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7735</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9468.459999999999</v>
+      </c>
       <c r="E3" t="n">
-        <v>207.5842</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>1528.0302</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6355.15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8447</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13204</v>
+      </c>
       <c r="I3" t="n">
-        <v>3356</v>
+        <v>67428</v>
       </c>
       <c r="J3" t="n">
-        <v>12.7847</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>42.6718</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3254</v>
+      </c>
       <c r="L3" t="n">
-        <v>222.4421</v>
+        <v>1237.8065</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11026</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>97200</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8968</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12932.7</v>
+      </c>
       <c r="E4" t="n">
-        <v>258.8201</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>1827.4769</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8377.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10223</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15681</v>
+      </c>
       <c r="I4" t="n">
-        <v>4535</v>
+        <v>97878</v>
       </c>
       <c r="J4" t="n">
-        <v>12.083003</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>52.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4566</v>
+      </c>
       <c r="L4" t="n">
-        <v>292.1315</v>
+        <v>1491.494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16823</v>
+        <v>102532</v>
       </c>
       <c r="C5" t="n">
-        <v>3158</v>
+        <v>10528</v>
       </c>
       <c r="D5" t="n">
-        <v>2144</v>
+        <v>15557.7</v>
       </c>
       <c r="E5" t="n">
-        <v>415.69158</v>
+        <v>2069.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1464</v>
+        <v>9874.299999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>4460</v>
+        <v>11637</v>
       </c>
       <c r="H5" t="n">
-        <v>7095</v>
+        <v>17691</v>
       </c>
       <c r="I5" t="n">
-        <v>6658</v>
+        <v>115884</v>
       </c>
       <c r="J5" t="n">
-        <v>17.3161</v>
+        <v>55.9</v>
       </c>
       <c r="K5" t="n">
-        <v>1619</v>
+        <v>4583</v>
       </c>
       <c r="L5" t="n">
-        <v>362.49852</v>
+        <v>1734.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24301</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>120077</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11914</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17451.7</v>
+      </c>
       <c r="E6" t="n">
-        <v>509.95343</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>2350.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11790.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12039</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18403</v>
+      </c>
       <c r="I6" t="n">
-        <v>8141</v>
+        <v>147927</v>
       </c>
       <c r="J6" t="n">
-        <v>18.898654</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>57.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4763</v>
+      </c>
       <c r="L6" t="n">
-        <v>456.43672</v>
+        <v>1922.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34446</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>114562</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19950.6525</v>
+      </c>
       <c r="E7" t="n">
-        <v>652.0283899999999</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+        <v>2574.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14307.5432</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14122</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20028</v>
+      </c>
       <c r="I7" t="n">
-        <v>13386</v>
+        <v>199728</v>
       </c>
       <c r="J7" t="n">
-        <v>24.8228</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>59</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5572</v>
+      </c>
       <c r="L7" t="n">
-        <v>545.3244099999999</v>
+        <v>2219.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39656</v>
+        <v>131680</v>
       </c>
       <c r="C8" t="n">
-        <v>4290</v>
+        <v>14949</v>
       </c>
       <c r="D8" t="n">
-        <v>4169.23</v>
+        <v>22786.7</v>
       </c>
       <c r="E8" t="n">
-        <v>798.4007</v>
+        <v>3000.35553</v>
       </c>
       <c r="F8" t="n">
-        <v>2574.17</v>
+        <v>13140.3</v>
       </c>
       <c r="G8" t="n">
-        <v>4872</v>
+        <v>17498</v>
       </c>
       <c r="H8" t="n">
-        <v>8534</v>
+        <v>23715</v>
       </c>
       <c r="I8" t="n">
-        <v>23915</v>
+        <v>257234</v>
       </c>
       <c r="J8" t="n">
-        <v>28.5079</v>
+        <v>58.02478</v>
       </c>
       <c r="K8" t="n">
-        <v>2534</v>
+        <v>6456</v>
       </c>
       <c r="L8" t="n">
-        <v>655.1994</v>
+        <v>2437.60503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51513</v>
+        <v>158354</v>
       </c>
       <c r="C9" t="n">
-        <v>5412</v>
+        <v>17770</v>
       </c>
       <c r="D9" t="n">
-        <v>4882.2</v>
+        <v>26186.55</v>
       </c>
       <c r="E9" t="n">
-        <v>925.07433</v>
+        <v>3421.29505</v>
       </c>
       <c r="F9" t="n">
-        <v>3160.5</v>
+        <v>15608.75</v>
       </c>
       <c r="G9" t="n">
-        <v>6220</v>
+        <v>19270</v>
       </c>
       <c r="H9" t="n">
-        <v>9780</v>
+        <v>27891</v>
       </c>
       <c r="I9" t="n">
-        <v>31830</v>
+        <v>306431</v>
       </c>
       <c r="J9" t="n">
-        <v>32.0033</v>
+        <v>59.02875</v>
       </c>
       <c r="K9" t="n">
-        <v>2845</v>
+        <v>7018</v>
       </c>
       <c r="L9" t="n">
-        <v>774.04986</v>
+        <v>2644.65164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59683</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6011</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6944.7</v>
-      </c>
+        <v>179600</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>1006.93846</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4450.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7117</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10723</v>
-      </c>
+        <v>3768.44686</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>50166</v>
+        <v>327965</v>
       </c>
       <c r="J10" t="n">
-        <v>39.90749</v>
+        <v>66.10084000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>3184</v>
+        <v>6399</v>
       </c>
       <c r="L10" t="n">
-        <v>967.82997</v>
+        <v>2912.52694</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77725</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7735</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9468.459999999999</v>
-      </c>
+        <v>199660</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>1528.0302</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6355.15</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8447</v>
-      </c>
-      <c r="H11" t="n">
-        <v>13204</v>
-      </c>
+        <v>4389.3</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>67428</v>
+        <v>365523</v>
       </c>
       <c r="J11" t="n">
-        <v>42.6718</v>
+        <v>63.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3254</v>
+        <v>6331</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.8065</v>
+        <v>3077.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97200</v>
-      </c>
-      <c r="C12" t="n">
-        <v>8968</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12932.7</v>
-      </c>
+        <v>224198</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1827.4769</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8377.1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10223</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15681</v>
-      </c>
+        <v>4945.35578</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>97878</v>
+        <v>438667</v>
       </c>
       <c r="J12" t="n">
-        <v>52.6</v>
+        <v>73.49608000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>4566</v>
+        <v>6682</v>
       </c>
       <c r="L12" t="n">
-        <v>1491.494</v>
+        <v>3728.58771</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102532</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10528</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15557.7</v>
-      </c>
+        <v>250746</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>2069.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9874.299999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11637</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17691</v>
-      </c>
+        <v>5961.36365</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>115884</v>
+        <v>529500</v>
       </c>
       <c r="J13" t="n">
-        <v>55.9</v>
+        <v>84.44286</v>
       </c>
       <c r="K13" t="n">
-        <v>4583</v>
+        <v>7093</v>
       </c>
       <c r="L13" t="n">
-        <v>1734.4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>120077</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11914</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17451.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2350.6</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11790.7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12039</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18403</v>
-      </c>
-      <c r="I14" t="n">
-        <v>147927</v>
-      </c>
-      <c r="J14" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4763</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1922.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>114562</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>19950.6525</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2574.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14307.5432</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14122</v>
-      </c>
-      <c r="H15" t="n">
-        <v>20028</v>
-      </c>
-      <c r="I15" t="n">
-        <v>199728</v>
-      </c>
-      <c r="J15" t="n">
-        <v>59</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5572</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2219.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>131680</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14949</v>
-      </c>
-      <c r="D16" t="n">
-        <v>22786.7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3000.35553</v>
-      </c>
-      <c r="F16" t="n">
-        <v>13140.3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17498</v>
-      </c>
-      <c r="H16" t="n">
-        <v>23715</v>
-      </c>
-      <c r="I16" t="n">
-        <v>257234</v>
-      </c>
-      <c r="J16" t="n">
-        <v>58.02478</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6456</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2437.60503</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>158354</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17770</v>
-      </c>
-      <c r="D17" t="n">
-        <v>26186.55</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3421.29505</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15608.75</v>
-      </c>
-      <c r="G17" t="n">
-        <v>19270</v>
-      </c>
-      <c r="H17" t="n">
-        <v>27891</v>
-      </c>
-      <c r="I17" t="n">
-        <v>306431</v>
-      </c>
-      <c r="J17" t="n">
-        <v>59.02875</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7018</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2644.65164</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>179600</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>3768.44686</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>327965</v>
-      </c>
-      <c r="J18" t="n">
-        <v>66.10084000000001</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6399</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2912.52694</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>199660</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>4389.3</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>365523</v>
-      </c>
-      <c r="J19" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6331</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3077.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>224198</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>4945.35578</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>438667</v>
-      </c>
-      <c r="J20" t="n">
-        <v>73.49608000000001</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6682</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3728.58771</v>
+        <v>4605.80918</v>
       </c>
     </row>
   </sheetData>
